--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeWeekly.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -205,19 +210,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>Payroll Suite GeneralAndLargeTaxcodeWeekly.xlsx</t>
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,6 +321,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -363,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +404,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,6 +456,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,15 +655,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -649,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -663,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -677,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -705,16 +747,16 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -740,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -760,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -780,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -800,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -820,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -840,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -860,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -880,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -900,7 +942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -920,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -940,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -960,7 +1002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -980,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1000,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1029,27 +1071,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.77734375" style="13" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" style="13" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.21875" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" style="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" style="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" style="13" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.88671875" style="13" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.33203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" style="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.109375" style="13" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6640625" style="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.88671875" style="13" collapsed="1"/>
+    <col min="1" max="1" width="51.7109375" style="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.85546875" style="13" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" style="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" style="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" style="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" style="13" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.28515625" style="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" style="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="13" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.7109375" style="13" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.85546875" style="13" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>52</v>
       </c>
@@ -1090,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="16" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="16" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
@@ -1098,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>19</v>
@@ -1107,13 +1149,13 @@
         <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>62</v>
+      <c r="H2" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>50</v>
@@ -1125,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
@@ -1133,7 +1175,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>19</v>
@@ -1142,13 +1184,13 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>62</v>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>50</v>
@@ -1160,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
@@ -1168,7 +1210,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>19</v>
@@ -1177,13 +1219,13 @@
         <v>48</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>62</v>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>50</v>
@@ -1195,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -1203,7 +1245,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>19</v>
@@ -1212,13 +1254,13 @@
         <v>48</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>62</v>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>50</v>
@@ -1230,7 +1272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>47</v>
       </c>
@@ -1238,7 +1280,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>19</v>
@@ -1247,13 +1289,13 @@
         <v>48</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>62</v>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>50</v>
@@ -1265,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
@@ -1273,7 +1315,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>19</v>
@@ -1282,13 +1324,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>62</v>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>50</v>
@@ -1300,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -1308,7 +1350,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>19</v>
@@ -1317,13 +1359,13 @@
         <v>48</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>62</v>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>50</v>
@@ -1335,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
@@ -1343,7 +1385,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>19</v>
@@ -1352,13 +1394,13 @@
         <v>48</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>62</v>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>50</v>
@@ -1370,7 +1412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>47</v>
       </c>
@@ -1378,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>19</v>
@@ -1387,13 +1429,13 @@
         <v>48</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>62</v>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>50</v>
@@ -1405,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>47</v>
       </c>
@@ -1413,7 +1455,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>19</v>
@@ -1422,13 +1464,13 @@
         <v>48</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>62</v>
+      <c r="H11" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>50</v>
@@ -1440,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -1448,7 +1490,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>19</v>
@@ -1457,13 +1499,13 @@
         <v>48</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>62</v>
+      <c r="H12" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>50</v>
@@ -1475,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
@@ -1483,7 +1525,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>19</v>
@@ -1492,13 +1534,13 @@
         <v>48</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>62</v>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>50</v>
@@ -1510,7 +1552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
@@ -1518,7 +1560,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>19</v>
@@ -1527,13 +1569,13 @@
         <v>48</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>62</v>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>50</v>
@@ -1545,7 +1587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>47</v>
       </c>
@@ -1553,7 +1595,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>19</v>
@@ -1562,13 +1604,13 @@
         <v>48</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>62</v>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>50</v>
@@ -1590,21 +1632,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1645,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
@@ -1653,7 +1695,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>19</v>
@@ -1662,13 +1704,13 @@
         <v>48</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>61</v>
